--- a/final_test2.xlsx
+++ b/final_test2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/USZCZRA/Python/lab/dns/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6688B5B8-D77B-0A47-A692-2F72D6FF515E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{378EA65C-5A8A-7D45-9EE2-686CC7975921}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="34560" yWindow="500" windowWidth="38400" windowHeight="20000" xr2:uid="{89E6ABFE-A64B-7749-BC99-9441C88D3804}"/>
+    <workbookView xWindow="36580" yWindow="1600" windowWidth="34560" windowHeight="20000" xr2:uid="{89E6ABFE-A64B-7749-BC99-9441C88D3804}"/>
   </bookViews>
   <sheets>
     <sheet name="template" sheetId="1" r:id="rId1"/>
@@ -73,7 +73,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="45">
   <si>
     <t>record_type</t>
   </si>
@@ -150,38 +150,71 @@
     <t>alias_target_type</t>
   </si>
   <si>
-    <t>aaa</t>
-  </si>
-  <si>
-    <t>ddd</t>
-  </si>
-  <si>
-    <t>bbb</t>
-  </si>
-  <si>
-    <t>eee</t>
-  </si>
-  <si>
-    <t>ccc</t>
-  </si>
-  <si>
-    <t>fff</t>
-  </si>
-  <si>
-    <t>ggg</t>
-  </si>
-  <si>
-    <t>hhh</t>
-  </si>
-  <si>
-    <t>iii</t>
+    <t>10.34.0.51</t>
+  </si>
+  <si>
+    <t>10.34.26.42</t>
+  </si>
+  <si>
+    <t>10.34.0.95</t>
+  </si>
+  <si>
+    <t>10.34.0.96</t>
+  </si>
+  <si>
+    <t>10.34.0.57</t>
+  </si>
+  <si>
+    <t>10.32.4.30</t>
+  </si>
+  <si>
+    <t>10.32.4.43</t>
+  </si>
+  <si>
+    <t>10.32.4.44</t>
+  </si>
+  <si>
+    <t>10.32.208.35</t>
+  </si>
+  <si>
+    <t>dn1upekmxapp02.pearsontc.com</t>
+  </si>
+  <si>
+    <t>dn1udekmxapp02.pearsontc.com</t>
+  </si>
+  <si>
+    <t>dn1uddaredsm01.pearsontc.com</t>
+  </si>
+  <si>
+    <t>dn1uddaredsm01</t>
+  </si>
+  <si>
+    <t>dn1uddaredsm02.pearsontc.com</t>
+  </si>
+  <si>
+    <t>dn1uddaredsm02</t>
+  </si>
+  <si>
+    <t>dn1updaredsm01.pearsontc.com</t>
+  </si>
+  <si>
+    <t>icdupdaredsm01.pearsontc.com</t>
+  </si>
+  <si>
+    <t>icdudekmxapp02.pearsontc.com</t>
+  </si>
+  <si>
+    <t>icdupekmxapp02.pearsontc.com</t>
+  </si>
+  <si>
+    <t>lo3updaredsm03.pearsontc.com</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -211,6 +244,12 @@
       <family val="2"/>
       <charset val="238"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF333333"/>
+      <name val="Helvetica"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="5">
@@ -251,7 +290,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -267,6 +306,7 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
@@ -624,14 +664,14 @@
   <dimension ref="A1:J501"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="12.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.33203125" customWidth="1"/>
-    <col min="3" max="3" width="16" customWidth="1"/>
+    <col min="3" max="3" width="28.83203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="28" customWidth="1"/>
     <col min="5" max="5" width="14.5" customWidth="1"/>
     <col min="6" max="6" width="50.1640625" style="2" bestFit="1" customWidth="1"/>
@@ -672,16 +712,16 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B2" t="s">
         <v>10</v>
       </c>
       <c r="C2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D2" t="s">
         <v>25</v>
-      </c>
-      <c r="D2" t="s">
-        <v>26</v>
       </c>
       <c r="E2" t="s">
         <v>18</v>
@@ -694,19 +734,19 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" t="s">
-        <v>27</v>
+        <v>10</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>35</v>
       </c>
       <c r="D3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E3" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="I3" s="5" t="str">
         <f t="shared" ref="I3:I66" si="0">IF(AND(A3="mx",B3="update"),"Please specify mx_preference value AND provide new_value",IF(AND(A3="alias",B3="update"),"Please select alias_target_type from the list AND provide new_value",IF(A3="alias","Please select alias_target_type from the list",IF(A3="mx","Please specify mx_preference value",IF(B3="update","Please provide new_value","")))))</f>
@@ -716,105 +756,240 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" t="s">
-        <v>29</v>
+        <v>10</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>36</v>
       </c>
       <c r="D4" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="E4" t="s">
-        <v>19</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="I4" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>Please provide new_value</v>
+        <v/>
       </c>
       <c r="J4" s="5"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>15</v>
+      </c>
       <c r="B5" t="s">
         <v>10</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="D5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E5" t="s">
+        <v>18</v>
+      </c>
+      <c r="I5" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="J5" s="5"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="D6" t="s">
+        <v>28</v>
+      </c>
+      <c r="E6" t="s">
+        <v>18</v>
+      </c>
+      <c r="I6" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="J6" s="5"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="D7" t="s">
+        <v>28</v>
+      </c>
+      <c r="E7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I7" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="J7" s="5"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" t="s">
+        <v>40</v>
+      </c>
+      <c r="D8" t="s">
+        <v>29</v>
+      </c>
+      <c r="E8" t="s">
+        <v>18</v>
+      </c>
+      <c r="I8" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="J8" s="5"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="D9" t="s">
+        <v>29</v>
+      </c>
+      <c r="E9" t="s">
+        <v>18</v>
+      </c>
+      <c r="I9" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="J9" s="5"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="D10" t="s">
+        <v>30</v>
+      </c>
+      <c r="E10" t="s">
+        <v>18</v>
+      </c>
+      <c r="I10" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="J10" s="5"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="D11" t="s">
+        <v>30</v>
+      </c>
+      <c r="E11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I11" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="J11" s="5"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="D12" t="s">
+        <v>31</v>
+      </c>
+      <c r="E12" t="s">
+        <v>18</v>
+      </c>
+      <c r="I12" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="J12" s="5"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="D13" t="s">
         <v>32</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E13" t="s">
+        <v>18</v>
+      </c>
+      <c r="I13" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="J13" s="5"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14" t="s">
+        <v>10</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="D14" t="s">
         <v>33</v>
       </c>
-      <c r="E5" t="s">
-        <v>9</v>
-      </c>
-      <c r="I5" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="J5" s="5"/>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="I6" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="J6" s="5"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="I7" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="J7" s="5"/>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="I8" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="J8" s="5"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="I9" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="J9" s="5"/>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="I10" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="J10" s="5"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="I11" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="J11" s="5"/>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="I12" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="J12" s="5"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="I13" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="J13" s="5"/>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="E14" t="s">
+        <v>18</v>
+      </c>
       <c r="I14" s="5" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -3790,7 +3965,7 @@
           <x14:formula1>
             <xm:f>Arkusz2!$C$2:$C$4</xm:f>
           </x14:formula1>
-          <xm:sqref>E2:E502 H502</xm:sqref>
+          <xm:sqref>H502 E2:E502</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{59676379-71AB-B745-9241-C5DDC2B34E11}">
           <x14:formula1>
